--- a/Orb_Alt_Study/Antenna_Coverage_and_Gains.xlsx
+++ b/Orb_Alt_Study/Antenna_Coverage_and_Gains.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lyle\Documents\GitHub\Telecomm\Orb_Alt_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9176D14B-A599-44F0-ACA7-F3B4D4E02202}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846DF46C-1C34-4965-A1AF-4F5A7B6F326A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{08F54D12-A179-41B6-9AE0-F91540243AA2}"/>
+    <workbookView xWindow="3924" yWindow="2820" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{08F54D12-A179-41B6-9AE0-F91540243AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Coverage vs Angle" sheetId="3" r:id="rId1"/>
@@ -203,8 +203,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -296,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -314,6 +315,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,17 +326,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1957,21 +1959,21 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="15"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
@@ -2553,17 +2555,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="18"/>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="16"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -4109,13 +4111,13 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F11" sqref="F11:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
     <col min="4" max="4" width="3.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5546875" bestFit="1" customWidth="1"/>
@@ -4126,24 +4128,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="F2" s="18" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="F2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5">
-        <f>8400000000</f>
-        <v>8400000000</v>
+        <f>32400000000</f>
+        <v>32400000000</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -4165,7 +4167,7 @@
       </c>
       <c r="C4">
         <f>(300000000)/C3</f>
-        <v>3.5714285714285712E-2</v>
+        <v>9.2592592592592587E-3</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -4186,7 +4188,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="6">
-        <v>0.125</v>
+        <v>3.7</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -4216,12 +4218,12 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="23">
         <f>C6*(PI()*C5/C4)^2</f>
-        <v>66.496459652339553</v>
+        <v>866789.00544645928</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -4232,10 +4234,10 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="8">
         <f>10*LOG10(C7)</f>
-        <v>18.22798523583063</v>
+        <v>59.379133939904008</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -4248,17 +4250,17 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="7">
         <f>RADIANS(C10)</f>
-        <v>0.3490658503988659</v>
+        <v>3.0573835745646414E-3</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="20" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="9">
@@ -4267,15 +4269,15 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="17"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="8">
         <f>70*C4/C5</f>
-        <v>20</v>
+        <v>0.17517517517517517</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="19"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="8">
         <f>G9+10*LOG10(G8)</f>
         <v>9.354677708639116</v>
@@ -4285,7 +4287,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="7">
@@ -4297,7 +4299,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F12" s="17"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="8">
         <f>16.6/SQRT(G5^2*G6/G4^3)</f>
         <v>44.817727098593473</v>
@@ -4307,16 +4309,16 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="F15" s="18" t="s">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="F15" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -4351,7 +4353,7 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="20" t="s">
         <v>14</v>
       </c>
       <c r="G17">
@@ -4372,7 +4374,7 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="20"/>
       <c r="G18">
         <f>G17*1000</f>
         <v>37.5</v>
@@ -4385,7 +4387,7 @@
       <c r="B19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="15">
         <f>C18^2/(3*C17)</f>
         <v>0.10755555555555556</v>
       </c>
@@ -4406,7 +4408,7 @@
       <c r="F20" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="15">
         <f>G19*G18</f>
         <v>450</v>
       </c>
@@ -4415,7 +4417,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="9">
@@ -4430,7 +4432,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="8">
         <f>C21+10*LOG10(C20)</f>
         <v>13.750855243552563</v>
@@ -4441,7 +4443,7 @@
       <c r="F22" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="20">
+      <c r="G22" s="15">
         <f>G21*G18</f>
         <v>450</v>
       </c>
@@ -4450,7 +4452,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="7">
@@ -4463,13 +4465,13 @@
       <c r="F23" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="15">
         <f>G19*G21</f>
         <v>144</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="17"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="8">
         <f>72*C17/C18</f>
         <v>24.545454545454543</v>
@@ -4480,7 +4482,7 @@
       <c r="F24" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="15">
         <f>(G19*G17)*(G21*G17)</f>
         <v>0.20249999999999996</v>
       </c>
@@ -4497,7 +4499,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="20" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9">
@@ -4506,7 +4508,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F27" s="19"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="8">
         <f>G26+10*LOG10(G25)</f>
         <v>27.365137424788934</v>
@@ -4516,7 +4518,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F28" s="17" t="s">
+      <c r="F28" s="19" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="7">
@@ -4528,7 +4530,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F29" s="17"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="8">
         <f>72*AVERAGE(G20,G22)/1000/G19</f>
         <v>2.6999999999999997</v>
@@ -4539,11 +4541,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F26:F27"/>
     <mergeCell ref="F28:F29"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="F11:F12"/>
@@ -4552,6 +4549,11 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="F9:F10"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F26:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4572,14 +4574,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="21"/>
+      <c r="G1" s="22"/>
       <c r="H1" t="s">
         <v>48</v>
       </c>
@@ -4602,15 +4604,15 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="16">
         <f>RADIANS(D3)</f>
         <v>0</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="16">
         <f>(COS(E3))^2.4</f>
         <v>1</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="16">
         <f>10*LOG10(F3)</f>
         <v>0</v>
       </c>
@@ -4623,15 +4625,15 @@
       <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="16">
         <f t="shared" ref="E4:E21" si="0">RADIANS(D4)</f>
         <v>8.7266462599716474E-2</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="16">
         <f t="shared" ref="F4:F21" si="1">(COS(E4))^2.4</f>
         <v>0.99089159001227745</v>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="16">
         <f t="shared" ref="G4:G21" si="2">10*LOG10(F4)</f>
         <v>-3.9738575580022466E-2</v>
       </c>
@@ -4644,15 +4646,15 @@
       <c r="D5">
         <v>10</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="16">
         <f t="shared" si="0"/>
         <v>0.17453292519943295</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="16">
         <f t="shared" si="1"/>
         <v>0.9639255713279079</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="16">
         <f t="shared" si="2"/>
         <v>-0.15956498472154823</v>
       </c>
@@ -4665,15 +4667,15 @@
       <c r="D6">
         <v>15</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
         <v>0.26179938779914941</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="16">
         <f t="shared" si="1"/>
         <v>0.92016363830382608</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="16">
         <f t="shared" si="2"/>
         <v>-0.36134932553523591</v>
       </c>
@@ -4686,15 +4688,15 @@
       <c r="D7">
         <v>20</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="16">
         <f t="shared" si="0"/>
         <v>0.3490658503988659</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="16">
         <f t="shared" si="1"/>
         <v>0.86132283158103773</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="16">
         <f t="shared" si="2"/>
         <v>-0.64834040536952431</v>
       </c>
@@ -4707,15 +4709,15 @@
       <c r="D8">
         <v>25</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="16">
         <f t="shared" si="0"/>
         <v>0.43633231299858238</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="16">
         <f t="shared" si="1"/>
         <v>0.78969921729881387</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="16">
         <f t="shared" si="2"/>
         <v>-1.0253829243264361</v>
       </c>
@@ -4728,15 +4730,15 @@
       <c r="D9">
         <v>30</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="16">
         <f t="shared" si="0"/>
         <v>0.52359877559829882</v>
       </c>
-      <c r="F9" s="22">
+      <c r="F9" s="16">
         <f t="shared" si="1"/>
         <v>0.70806563347117668</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="16">
         <f t="shared" si="2"/>
         <v>-1.4992648392995984</v>
       </c>
@@ -4749,15 +4751,15 @@
       <c r="D10">
         <v>35</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="16">
         <f t="shared" si="0"/>
         <v>0.6108652381980153</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="16">
         <f t="shared" si="1"/>
         <v>0.61954783919152689</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G10" s="16">
         <f t="shared" si="2"/>
         <v>-2.0792515338034097</v>
       </c>
@@ -4770,15 +4772,15 @@
       <c r="D11">
         <v>40</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="16">
         <f t="shared" si="0"/>
         <v>0.69813170079773179</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="16">
         <f t="shared" si="1"/>
         <v>0.52748427798232222</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="16">
         <f t="shared" si="2"/>
         <v>-2.777904802715534</v>
       </c>
@@ -4791,15 +4793,15 @@
       <c r="D12">
         <v>45</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E12" s="16">
         <f t="shared" si="0"/>
         <v>0.78539816339744828</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F12" s="16">
         <f t="shared" si="1"/>
         <v>0.43527528164806217</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G12" s="16">
         <f t="shared" si="2"/>
         <v>-3.6123599479677733</v>
       </c>
@@ -4812,15 +4814,15 @@
       <c r="D13">
         <v>50</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="16">
         <f t="shared" si="0"/>
         <v>0.87266462599716477</v>
       </c>
-      <c r="F13" s="22">
+      <c r="F13" s="16">
         <f t="shared" si="1"/>
         <v>0.34622784467939988</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="16">
         <f t="shared" si="2"/>
         <v>-4.6063800779415613</v>
       </c>
@@ -4833,15 +4835,15 @@
       <c r="D14">
         <v>55</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="16">
         <f t="shared" si="0"/>
         <v>0.95993108859688125</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="16">
         <f t="shared" si="1"/>
         <v>0.26340203337740886</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="16">
         <f t="shared" si="2"/>
         <v>-5.7938087675016616</v>
       </c>
@@ -4854,15 +4856,15 @@
       <c r="D15">
         <v>60</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="16">
         <f t="shared" si="0"/>
         <v>1.0471975511965976</v>
       </c>
-      <c r="F15" s="22">
+      <c r="F15" s="16">
         <f t="shared" si="1"/>
         <v>0.18946457081379989</v>
       </c>
-      <c r="G15" s="22">
+      <c r="G15" s="16">
         <f t="shared" si="2"/>
         <v>-7.2247198959355465</v>
       </c>
@@ -4875,15 +4877,15 @@
       <c r="D16">
         <v>65</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E16" s="16">
         <f t="shared" si="0"/>
         <v>1.1344640137963142</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F16" s="16">
         <f t="shared" si="1"/>
         <v>0.12655398428884554</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G16" s="16">
         <f t="shared" si="2"/>
         <v>-8.9772417743246482</v>
       </c>
@@ -4896,15 +4898,15 @@
       <c r="D17">
         <v>70</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="16">
         <f t="shared" si="0"/>
         <v>1.2217304763960306</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F17" s="16">
         <f t="shared" si="1"/>
         <v>7.61594928066152E-2</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="16">
         <f t="shared" si="2"/>
         <v>-11.182759568507583</v>
       </c>
@@ -4917,15 +4919,15 @@
       <c r="D18">
         <v>75</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="16">
         <f t="shared" si="0"/>
         <v>1.3089969389957472</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F18" s="16">
         <f t="shared" si="1"/>
         <v>3.9011347655322895E-2</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="16">
         <f t="shared" si="2"/>
         <v>-14.08809046633586</v>
       </c>
@@ -4938,15 +4940,15 @@
       <c r="D19">
         <v>80</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="16">
         <f t="shared" si="0"/>
         <v>1.3962634015954636</v>
       </c>
-      <c r="F19" s="22">
+      <c r="F19" s="16">
         <f t="shared" si="1"/>
         <v>1.4969543341529834E-2</v>
       </c>
-      <c r="G19" s="22">
+      <c r="G19" s="16">
         <f t="shared" si="2"/>
         <v>-18.24791447972158</v>
       </c>
@@ -4959,15 +4961,15 @@
       <c r="D20">
         <v>85</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="16">
         <f t="shared" si="0"/>
         <v>1.4835298641951802</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="16">
         <f t="shared" si="1"/>
         <v>2.862268822411113E-3</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="16">
         <f t="shared" si="2"/>
         <v>-25.432895800077119</v>
       </c>
@@ -4980,15 +4982,15 @@
       <c r="D21">
         <v>90</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="16">
         <f t="shared" si="0"/>
         <v>1.5707963267948966</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="16">
         <f t="shared" si="1"/>
         <v>1.227950698178047E-39</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="16">
         <f t="shared" si="2"/>
         <v>-389.10819069627303</v>
       </c>

--- a/Orb_Alt_Study/Antenna_Coverage_and_Gains.xlsx
+++ b/Orb_Alt_Study/Antenna_Coverage_and_Gains.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lyle\Documents\GitHub\Telecomm\Orb_Alt_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846DF46C-1C34-4965-A1AF-4F5A7B6F326A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2522F7-6293-47E6-9096-7C8E8813936E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3924" yWindow="2820" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{08F54D12-A179-41B6-9AE0-F91540243AA2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{08F54D12-A179-41B6-9AE0-F91540243AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Coverage vs Angle" sheetId="3" r:id="rId1"/>
     <sheet name="Directivity" sheetId="1" r:id="rId2"/>
     <sheet name="Antennas" sheetId="2" r:id="rId3"/>
-    <sheet name="Phased Array Gain Curve Example" sheetId="4" r:id="rId4"/>
+    <sheet name="Waterfall" sheetId="5" r:id="rId4"/>
+    <sheet name="Pointing Accuracy" sheetId="6" r:id="rId5"/>
+    <sheet name="Phased Array Gain Curve Example" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>rad</t>
   </si>
@@ -198,16 +200,65 @@
   <si>
     <t>Steering Performance</t>
   </si>
+  <si>
+    <t>Ground User</t>
+  </si>
+  <si>
+    <t>Orbital User</t>
+  </si>
+  <si>
+    <t>Gb</t>
+  </si>
+  <si>
+    <t>RS Daily Throughput</t>
+  </si>
+  <si>
+    <t>User - RS Daily Transfer per Orbiter</t>
+  </si>
+  <si>
+    <t>Number of RS Orbiters</t>
+  </si>
+  <si>
+    <t>RS - ECS Daily Transfer per Orbiter</t>
+  </si>
+  <si>
+    <t>Number of ECS Orbiters</t>
+  </si>
+  <si>
+    <t>ECS Daily Throughput</t>
+  </si>
+  <si>
+    <t>ECS Orbiter Average Downlink Rate</t>
+  </si>
+  <si>
+    <t>Mb/s</t>
+  </si>
+  <si>
+    <t>Quantity of Users</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Waterfall</t>
+  </si>
+  <si>
+    <t>dB Loss</t>
+  </si>
+  <si>
+    <t>Off Axis Angle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,8 +288,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +325,35 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray">
+        <fgColor auto="1"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightGray">
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -317,6 +405,13 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -332,15 +427,50 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1017,6 +1147,356 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Pointing Accuracy'!$D$8:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Pointing Accuracy'!$E$8:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CADF-41AD-A465-85D8C5481A8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="776466472"/>
+        <c:axId val="776463192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="776466472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="776463192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="776463192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="776466472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1057,7 +1537,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1614,6 +2650,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC33CF71-0D66-4667-811A-BC3C8FB02B4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1959,21 +3036,21 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
@@ -2527,7 +3604,7 @@
     <mergeCell ref="G6:H6"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:H25">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>$G8&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2555,17 +3632,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -4110,8 +5187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1288A94A-B1B5-47EA-ADD0-F5EE63EFD73A}">
   <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4128,24 +5205,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="F2" s="21" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="F2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="5">
-        <f>32400000000</f>
-        <v>32400000000</v>
+        <f>32000000000</f>
+        <v>32000000000</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -4167,7 +5244,7 @@
       </c>
       <c r="C4">
         <f>(300000000)/C3</f>
-        <v>9.2592592592592587E-3</v>
+        <v>9.3749999999999997E-3</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -4188,7 +5265,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="6">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -4218,12 +5295,12 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="17">
         <f>C6*(PI()*C5/C4)^2</f>
-        <v>866789.00544645928</v>
+        <v>1250676.2697060439</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -4234,10 +5311,10 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="20"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="8">
         <f>10*LOG10(C7)</f>
-        <v>59.379133939904008</v>
+        <v>60.971449096336855</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -4250,17 +5327,17 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="32">
         <f>RADIANS(C10)</f>
-        <v>3.0573835745646414E-3</v>
+        <v>2.5452718258250641E-3</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="9">
@@ -4269,15 +5346,15 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
-      <c r="C10" s="8">
+      <c r="B10" s="24"/>
+      <c r="C10" s="33">
         <f>70*C4/C5</f>
-        <v>0.17517517517517517</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="8">
         <f>G9+10*LOG10(G8)</f>
         <v>9.354677708639116</v>
@@ -4287,7 +5364,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="24" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="7">
@@ -4299,7 +5376,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F12" s="19"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="8">
         <f>16.6/SQRT(G5^2*G6/G4^3)</f>
         <v>44.817727098593473</v>
@@ -4309,16 +5386,16 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="F15" s="21" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="F15" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -4335,8 +5412,8 @@
         <v>12</v>
       </c>
       <c r="G16" s="5">
-        <f>8000000000</f>
-        <v>8000000000</v>
+        <f>8400000000</f>
+        <v>8400000000</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -4353,12 +5430,12 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="25" t="s">
         <v>14</v>
       </c>
       <c r="G17">
         <f>(300000000)/G16</f>
-        <v>3.7499999999999999E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
@@ -4374,10 +5451,10 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="20"/>
+      <c r="F18" s="25"/>
       <c r="G18">
         <f>G17*1000</f>
-        <v>37.5</v>
+        <v>35.714285714285715</v>
       </c>
       <c r="H18" t="s">
         <v>39</v>
@@ -4410,14 +5487,14 @@
       </c>
       <c r="G20" s="15">
         <f>G19*G18</f>
-        <v>450</v>
+        <v>428.57142857142856</v>
       </c>
       <c r="H20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="25" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="9">
@@ -4432,7 +5509,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="20"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="8">
         <f>C21+10*LOG10(C20)</f>
         <v>13.750855243552563</v>
@@ -4445,14 +5522,14 @@
       </c>
       <c r="G22" s="15">
         <f>G21*G18</f>
-        <v>450</v>
+        <v>428.57142857142856</v>
       </c>
       <c r="H22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="7">
@@ -4471,7 +5548,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="19"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="8">
         <f>72*C17/C18</f>
         <v>24.545454545454543</v>
@@ -4484,7 +5561,7 @@
       </c>
       <c r="G24" s="15">
         <f>(G19*G17)*(G21*G17)</f>
-        <v>0.20249999999999996</v>
+        <v>0.18367346938775508</v>
       </c>
       <c r="H24" t="s">
         <v>42</v>
@@ -4499,7 +5576,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="25" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9">
@@ -4508,7 +5585,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F27" s="20"/>
+      <c r="F27" s="25"/>
       <c r="G27" s="8">
         <f>G26+10*LOG10(G25)</f>
         <v>27.365137424788934</v>
@@ -4518,22 +5595,22 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="24" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="7">
         <f>RADIANS(G29)</f>
-        <v>4.7123889803846894E-2</v>
+        <v>4.4879895051282759E-2</v>
       </c>
       <c r="H28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F29" s="19"/>
+      <c r="F29" s="24"/>
       <c r="G29" s="8">
         <f>72*AVERAGE(G20,G22)/1000/G19</f>
-        <v>2.6999999999999997</v>
+        <v>2.5714285714285712</v>
       </c>
       <c r="H29" t="s">
         <v>19</v>
@@ -4560,11 +5637,229 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A38F01C-158B-44EA-A1C7-409EF8005D29}">
+  <dimension ref="B2:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="21">
+        <v>10</v>
+      </c>
+      <c r="D3" s="21">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="3">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="27">
+        <v>4</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="28">
+        <f>C3*C4*C5+D3*D4*C5</f>
+        <v>2200</v>
+      </c>
+      <c r="D6" s="28"/>
+      <c r="E6" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="28">
+        <v>290</v>
+      </c>
+      <c r="D7" s="28"/>
+      <c r="E7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="27">
+        <v>2</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="28">
+        <f>C8*C7*C5</f>
+        <v>2320</v>
+      </c>
+      <c r="D9" s="28"/>
+      <c r="E9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="29">
+        <f>1000*(C9/C8)/86400</f>
+        <v>13.425925925925926</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C6:D6 C9:D9">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$C$9&lt;$C$6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$C$9&gt;$C$6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968CC12D-5775-4072-95A1-117E97439760}">
+  <dimension ref="D7:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E8">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="9" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E10">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>0.08</v>
+      </c>
+      <c r="E18">
+        <f>RADIANS(D18)</f>
+        <v>1.3962634015954637E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB426678-5217-48AE-97D3-67BA84EBE3E9}">
   <dimension ref="D1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4574,14 +5869,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="22"/>
+      <c r="G1" s="30"/>
       <c r="H1" t="s">
         <v>48</v>
       </c>

--- a/Orb_Alt_Study/Antenna_Coverage_and_Gains.xlsx
+++ b/Orb_Alt_Study/Antenna_Coverage_and_Gains.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lyle\Documents\GitHub\Telecomm\Orb_Alt_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2522F7-6293-47E6-9096-7C8E8813936E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC6C4B7-63FC-4881-89E3-824ED109C5E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="4" xr2:uid="{08F54D12-A179-41B6-9AE0-F91540243AA2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="787" activeTab="2" xr2:uid="{08F54D12-A179-41B6-9AE0-F91540243AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Coverage vs Angle" sheetId="3" r:id="rId1"/>
     <sheet name="Directivity" sheetId="1" r:id="rId2"/>
     <sheet name="Antennas" sheetId="2" r:id="rId3"/>
-    <sheet name="Waterfall" sheetId="5" r:id="rId4"/>
-    <sheet name="Pointing Accuracy" sheetId="6" r:id="rId5"/>
-    <sheet name="Phased Array Gain Curve Example" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="Waterfall" sheetId="5" r:id="rId5"/>
+    <sheet name="Pointing Accuracy" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
   <si>
     <t>rad</t>
   </si>
@@ -187,18 +187,6 @@
   </si>
   <si>
     <t>Length</t>
-  </si>
-  <si>
-    <t>Steering Angle</t>
-  </si>
-  <si>
-    <t>(dB)</t>
-  </si>
-  <si>
-    <t>Resultant Gain</t>
-  </si>
-  <si>
-    <t>Steering Performance</t>
   </si>
   <si>
     <t>Ground User</t>
@@ -385,7 +373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -404,7 +392,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -412,6 +399,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -427,23 +419,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3036,21 +3020,21 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="24"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
@@ -3632,17 +3616,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="23"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
@@ -4002,19 +3986,19 @@
         <v>85</v>
       </c>
       <c r="C20" s="4">
-        <f>RADIANS(B20)</f>
+        <f t="shared" ref="C20:C28" si="4">RADIANS(B20)</f>
         <v>1.4835298641951802</v>
       </c>
       <c r="D20" s="4">
-        <f>4*PI()*(SIN(C20/4))^2</f>
+        <f t="shared" ref="D20:D28" si="5">4*PI()*(SIN(C20/4))^2</f>
         <v>1.6507351772177199</v>
       </c>
       <c r="E20" s="4">
-        <f>4*PI()/D20</f>
+        <f t="shared" ref="E20:E28" si="6">4*PI()/D20</f>
         <v>7.6125903099366496</v>
       </c>
       <c r="F20" s="4">
-        <f>10*LOG10(E20)</f>
+        <f t="shared" ref="F20:F28" si="7">10*LOG10(E20)</f>
         <v>8.8153245780835405</v>
       </c>
     </row>
@@ -4023,19 +4007,19 @@
         <v>90</v>
       </c>
       <c r="C21" s="4">
-        <f t="shared" ref="C21:C23" si="4">RADIANS(B21)</f>
+        <f t="shared" si="4"/>
         <v>1.5707963267948966</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" ref="D21:D23" si="5">4*PI()*(SIN(C21/4))^2</f>
+        <f t="shared" si="5"/>
         <v>1.8403023690212201</v>
       </c>
       <c r="E21" s="4">
-        <f t="shared" ref="E21:E23" si="6">4*PI()/D21</f>
+        <f t="shared" si="6"/>
         <v>6.8284271247461898</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" ref="F21:F23" si="7">10*LOG10(E21)</f>
+        <f t="shared" si="7"/>
         <v>8.3432067883383496</v>
       </c>
     </row>
@@ -4086,19 +4070,19 @@
         <v>105</v>
       </c>
       <c r="C24" s="4">
-        <f>RADIANS(B24)</f>
+        <f t="shared" si="4"/>
         <v>1.8325957145940461</v>
       </c>
       <c r="D24" s="4">
-        <f>4*PI()*(SIN(C24/4))^2</f>
+        <f t="shared" si="5"/>
         <v>2.4582244408543441</v>
       </c>
       <c r="E24" s="4">
-        <f>4*PI()/D24</f>
+        <f t="shared" si="6"/>
         <v>5.1119704147078577</v>
       </c>
       <c r="F24" s="4">
-        <f>10*LOG10(E24)</f>
+        <f t="shared" si="7"/>
         <v>7.0858833169840638</v>
       </c>
     </row>
@@ -4107,19 +4091,19 @@
         <v>110</v>
       </c>
       <c r="C25" s="4">
-        <f t="shared" ref="C25:C27" si="8">RADIANS(B25)</f>
+        <f t="shared" si="4"/>
         <v>1.9198621771937625</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" ref="D25:D27" si="9">4*PI()*(SIN(C25/4))^2</f>
+        <f t="shared" si="5"/>
         <v>2.6792982697542658</v>
       </c>
       <c r="E25" s="4">
-        <f t="shared" ref="E25:E27" si="10">4*PI()/D25</f>
+        <f t="shared" si="6"/>
         <v>4.6901723321426649</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" ref="F25:F27" si="11">10*LOG10(E25)</f>
+        <f t="shared" si="7"/>
         <v>6.7118880039602393</v>
       </c>
     </row>
@@ -4128,19 +4112,19 @@
         <v>115</v>
       </c>
       <c r="C26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2.0071286397934789</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>2.9072323024614763</v>
       </c>
       <c r="E26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>4.3224514957815927</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>6.3573012855496112</v>
       </c>
     </row>
@@ -4149,19 +4133,19 @@
         <v>120</v>
       </c>
       <c r="C27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>2.0943951023931953</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>3.1415926535897922</v>
       </c>
       <c r="E27" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>4.0000000000000009</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>6.0205999132796251</v>
       </c>
     </row>
@@ -4170,19 +4154,19 @@
         <v>125</v>
       </c>
       <c r="C28" s="4">
-        <f>RADIANS(B28)</f>
+        <f t="shared" si="4"/>
         <v>2.1816615649929121</v>
       </c>
       <c r="D28" s="4">
-        <f>4*PI()*(SIN(C28/4))^2</f>
+        <f t="shared" si="5"/>
         <v>3.3819332048906716</v>
       </c>
       <c r="E28" s="4">
-        <f>4*PI()/D28</f>
+        <f t="shared" si="6"/>
         <v>3.7157358980912836</v>
       </c>
       <c r="F28" s="4">
-        <f>10*LOG10(E28)</f>
+        <f t="shared" si="7"/>
         <v>5.7004483823934047</v>
       </c>
     </row>
@@ -4191,19 +4175,19 @@
         <v>130</v>
       </c>
       <c r="C29" s="4">
-        <f t="shared" ref="C29:C35" si="12">RADIANS(B29)</f>
+        <f t="shared" ref="C29:C35" si="8">RADIANS(B29)</f>
         <v>2.2689280275926285</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" ref="D29:D35" si="13">4*PI()*(SIN(C29/4))^2</f>
+        <f t="shared" ref="D29:D35" si="9">4*PI()*(SIN(C29/4))^2</f>
         <v>3.6277964544646477</v>
       </c>
       <c r="E29" s="4">
-        <f t="shared" ref="E29:E35" si="14">4*PI()/D29</f>
+        <f t="shared" ref="E29:E35" si="10">4*PI()/D29</f>
         <v>3.4639128110106681</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" ref="F29:F35" si="15">10*LOG10(E29)</f>
+        <f t="shared" ref="F29:F35" si="11">10*LOG10(E29)</f>
         <v>5.3956695200192053</v>
       </c>
     </row>
@@ -4212,19 +4196,19 @@
         <v>135</v>
       </c>
       <c r="C30" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2.3561944901923448</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>3.878714387642201</v>
       </c>
       <c r="E30" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.2398288088435501</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>5.1052206287982083</v>
       </c>
     </row>
@@ -4233,19 +4217,19 @@
         <v>140</v>
       </c>
       <c r="C31" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2.4434609527920612</v>
       </c>
       <c r="D31" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4.134209367876287</v>
       </c>
       <c r="E31" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>3.0396067291614757</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>4.8281739729180542</v>
       </c>
     </row>
@@ -4254,19 +4238,19 @@
         <v>145</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2.530727415391778</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4.3937950459506459</v>
       </c>
       <c r="E32" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>2.8600265790595838</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>4.5637006917284522</v>
       </c>
     </row>
@@ -4275,19 +4259,19 @@
         <v>150</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2.6179938779914944</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4.656977285773177</v>
       </c>
       <c r="E33" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>2.6983963724170996</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>4.311057443387587</v>
       </c>
     </row>
@@ -4296,19 +4280,19 @@
         <v>155</v>
       </c>
       <c r="C34" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2.7052603405912108</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>4.9232551049920765</v>
       </c>
       <c r="E34" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>2.5524516496447927</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>4.0695752412178994</v>
       </c>
     </row>
@@ -4317,19 +4301,19 @@
         <v>160</v>
       </c>
       <c r="C35" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2.7925268031909272</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="9"/>
         <v>5.1921216286442178</v>
       </c>
       <c r="E35" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="10"/>
         <v>2.4202766254612067</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="11"/>
         <v>3.8386500649513033</v>
       </c>
     </row>
@@ -4359,19 +4343,19 @@
         <v>170</v>
       </c>
       <c r="C37" s="4">
-        <f t="shared" ref="C37:C42" si="16">RADIANS(B37)</f>
+        <f t="shared" ref="C37:C42" si="12">RADIANS(B37)</f>
         <v>2.9670597283903604</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" ref="D37:D42" si="17">4*PI()*(SIN(C37/4))^2</f>
+        <f t="shared" ref="D37:D42" si="13">4*PI()*(SIN(C37/4))^2</f>
         <v>5.7355696249111769</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" ref="E37:E42" si="18">4*PI()/D37</f>
+        <f t="shared" ref="E37:E42" si="14">4*PI()/D37</f>
         <v>2.1909542445060599</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" ref="F37:F42" si="19">10*LOG10(E37)</f>
+        <f t="shared" ref="F37:F42" si="15">10*LOG10(E37)</f>
         <v>3.4063330792764805</v>
       </c>
     </row>
@@ -4380,19 +4364,19 @@
         <v>175</v>
       </c>
       <c r="C38" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>3.0543261909900767</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>6.0091166133775333</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2.0912176319533953</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>3.2039923197507991</v>
       </c>
     </row>
@@ -4401,19 +4385,19 @@
         <v>180</v>
       </c>
       <c r="C39" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>3.1415926535897931</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>6.2831853071795845</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>2.0000000000000004</v>
       </c>
       <c r="F39" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>3.010299956639813</v>
       </c>
     </row>
@@ -4422,19 +4406,19 @@
         <v>185</v>
       </c>
       <c r="C40" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>3.2288591161895095</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>6.5572540009816391</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1.9164074797892459</v>
       </c>
       <c r="F40" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>2.8248785725230268</v>
       </c>
     </row>
@@ -4443,19 +4427,19 @@
         <v>190</v>
       </c>
       <c r="C41" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>3.3161255787892263</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>6.8308009894479973</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1.8396628204761492</v>
       </c>
       <c r="F41" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>2.6473823136531616</v>
       </c>
     </row>
@@ -4464,19 +4448,19 @@
         <v>195</v>
       </c>
       <c r="C42" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="12"/>
         <v>3.4033920413889427</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="13"/>
         <v>7.103305560338713</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="14"/>
         <v>1.7690877166432861</v>
       </c>
       <c r="F42" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="15"/>
         <v>2.4774936705879402</v>
       </c>
     </row>
@@ -4506,19 +4490,19 @@
         <v>205</v>
       </c>
       <c r="C44" s="4">
-        <f t="shared" ref="C44:C58" si="20">RADIANS(B44)</f>
+        <f t="shared" ref="C44:C58" si="16">RADIANS(B44)</f>
         <v>3.5779249665883754</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" ref="D44:D58" si="21">4*PI()*(SIN(C44/4))^2</f>
+        <f t="shared" ref="D44:D58" si="17">4*PI()*(SIN(C44/4))^2</f>
         <v>7.6431155093670951</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" ref="E44:E58" si="22">4*PI()/D44</f>
+        <f t="shared" ref="E44:E58" si="18">4*PI()/D44</f>
         <v>1.6441424441326753</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" ref="F44:F58" si="23">10*LOG10(E44)</f>
+        <f t="shared" ref="F44:F58" si="19">10*LOG10(E44)</f>
         <v>2.1593944095397868</v>
       </c>
     </row>
@@ -4527,19 +4511,19 @@
         <v>210</v>
       </c>
       <c r="C45" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>3.6651914291880923</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>7.9093933285859954</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1.5887907064808635</v>
       </c>
       <c r="F45" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>2.0106669078380661</v>
       </c>
     </row>
@@ -4548,19 +4532,19 @@
         <v>215</v>
       </c>
       <c r="C46" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>3.7524578917878086</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>8.1725755684085257</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1.5376267260146321</v>
       </c>
       <c r="F46" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>1.8685091901060771</v>
       </c>
     </row>
@@ -4569,19 +4553,19 @@
         <v>220</v>
       </c>
       <c r="C47" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>3.839724354387525</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>8.4321612464828846</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1.4902905965657021</v>
       </c>
       <c r="F47" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>1.7327096115028409</v>
       </c>
     </row>
@@ -4590,19 +4574,19 @@
         <v>225</v>
       </c>
       <c r="C48" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>3.9269908169872414</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>8.687656226716971</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1.4464626921716897</v>
       </c>
       <c r="F48" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>1.603072366062503</v>
       </c>
     </row>
@@ -4611,19 +4595,19 @@
         <v>230</v>
       </c>
       <c r="C49" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>4.0142572795869578</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>8.9385741598945252</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1.4058585172053275</v>
       </c>
       <c r="F49" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>1.4794161635324485</v>
       </c>
     </row>
@@ -4632,19 +4616,19 @@
         <v>235</v>
       </c>
       <c r="C50" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>4.1015237421866741</v>
       </c>
       <c r="D50" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>9.1844374094684991</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1.3682243183892941</v>
       </c>
       <c r="F50" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>1.3615730517084457</v>
       </c>
     </row>
@@ -4653,19 +4637,19 @@
         <v>240</v>
       </c>
       <c r="C51" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>4.1887902047863905</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>9.4247779607693776</v>
       </c>
       <c r="E51" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1.3333333333333335</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>1.2493873660829999</v>
       </c>
     </row>
@@ -4674,19 +4658,19 @@
         <v>245</v>
       </c>
       <c r="C52" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>4.2760566673861078</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>9.6591383118976992</v>
       </c>
       <c r="E52" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1.3009825730397164</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>1.1427147912624596</v>
       </c>
     </row>
@@ -4695,19 +4679,19 @@
         <v>250</v>
       </c>
       <c r="C53" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>4.3633231299858242</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>9.8870723446049062</v>
       </c>
       <c r="E53" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1.2709900541201444</v>
       </c>
       <c r="F53" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>1.0414215208222268</v>
       </c>
     </row>
@@ -4716,19 +4700,19 @@
         <v>255</v>
       </c>
       <c r="C54" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>4.4505895925855405</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>10.10814617350483</v>
       </c>
       <c r="E54" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1.2431924112155963</v>
       </c>
       <c r="F54" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0.94538350413362549</v>
       </c>
     </row>
@@ -4737,19 +4721,19 @@
         <v>260</v>
       </c>
       <c r="C55" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>4.5378560551852569</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>10.321938971999137</v>
       </c>
       <c r="E55" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1.2174428320539989</v>
       </c>
       <c r="F55" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0.85448577027202943</v>
       </c>
     </row>
@@ -4758,19 +4742,19 @@
         <v>265</v>
       </c>
       <c r="C56" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>4.6251225177849733</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>10.528043773344708</v>
       </c>
       <c r="E56" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1.1936092672957133</v>
       </c>
       <c r="F56" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0.76862182045287775</v>
       </c>
     </row>
@@ -4779,19 +4763,19 @@
         <v>270</v>
       </c>
       <c r="C57" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>4.7123889803846897</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>10.726068245337952</v>
       </c>
       <c r="E57" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1.1715728752538099</v>
       </c>
       <c r="F57" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0.68769308158108722</v>
       </c>
     </row>
@@ -4800,19 +4784,19 @@
         <v>275</v>
       </c>
       <c r="C58" s="4">
-        <f t="shared" si="20"/>
+        <f t="shared" si="16"/>
         <v>4.7996554429844061</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="21"/>
+        <f t="shared" si="17"/>
         <v>10.91563543714145</v>
       </c>
       <c r="E58" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="18"/>
         <v>1.1512266680875898</v>
       </c>
       <c r="F58" s="4">
-        <f t="shared" si="23"/>
+        <f t="shared" si="19"/>
         <v>0.61160841447256453</v>
       </c>
     </row>
@@ -4821,19 +4805,19 @@
         <v>280</v>
       </c>
       <c r="C59" s="4">
-        <f>RADIANS(B59)</f>
+        <f t="shared" ref="C59:C75" si="20">RADIANS(B59)</f>
         <v>4.8869219055841224</v>
       </c>
       <c r="D59" s="4">
-        <f>4*PI()*(SIN(C59/4))^2</f>
+        <f t="shared" ref="D59:D75" si="21">4*PI()*(SIN(C59/4))^2</f>
         <v>11.096384496831314</v>
       </c>
       <c r="E59" s="4">
-        <f>4*PI()/D59</f>
+        <f t="shared" ref="E59:E75" si="22">4*PI()/D59</f>
         <v>1.1324743314317944</v>
       </c>
       <c r="F59" s="4">
-        <f>10*LOG10(E59)</f>
+        <f t="shared" ref="F59:F75" si="23">10*LOG10(E59)</f>
         <v>0.54028367114127152</v>
       </c>
     </row>
@@ -4842,19 +4826,19 @@
         <v>285</v>
       </c>
       <c r="C60" s="4">
-        <f t="shared" ref="C60:C64" si="24">RADIANS(B60)</f>
+        <f t="shared" si="20"/>
         <v>4.9741883681838388</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" ref="D60:D64" si="25">4*PI()*(SIN(C60/4))^2</f>
+        <f t="shared" si="21"/>
         <v>11.26797135829932</v>
       </c>
       <c r="E60" s="4">
-        <f t="shared" ref="E60:E64" si="26">4*PI()/D60</f>
+        <f t="shared" si="22"/>
         <v>1.1152291938604839</v>
       </c>
       <c r="F60" s="4">
-        <f t="shared" ref="F60:F64" si="27">10*LOG10(E60)</f>
+        <f t="shared" si="23"/>
         <v>0.47364129626390894</v>
       </c>
     </row>
@@ -4863,19 +4847,19 @@
         <v>290</v>
       </c>
       <c r="C61" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>5.0614548307835561</v>
       </c>
       <c r="D61" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>11.430069396202303</v>
       </c>
       <c r="E61" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>1.0994133262685537</v>
       </c>
       <c r="F61" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.41160996855490417</v>
       </c>
     </row>
@@ -4884,19 +4868,19 @@
         <v>295</v>
       </c>
       <c r="C62" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>5.1487212933832724</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>11.582370047712059</v>
       </c>
       <c r="E62" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>1.0849567543252072</v>
       </c>
       <c r="F62" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.35412427832262505</v>
       </c>
     </row>
@@ -4905,19 +4889,19 @@
         <v>300</v>
       </c>
       <c r="C63" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>5.2359877559829888</v>
       </c>
       <c r="D63" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>11.72458339988224</v>
       </c>
       <c r="E63" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>1.0717967697244908</v>
       </c>
       <c r="F63" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.30112443794602978</v>
       </c>
     </row>
@@ -4926,19 +4910,19 @@
         <v>305</v>
       </c>
       <c r="C64" s="4">
-        <f t="shared" si="24"/>
+        <f t="shared" si="20"/>
         <v>5.3232542185827052</v>
       </c>
       <c r="D64" s="4">
-        <f t="shared" si="25"/>
+        <f t="shared" si="21"/>
         <v>11.856438741514111</v>
       </c>
       <c r="E64" s="4">
-        <f t="shared" si="26"/>
+        <f t="shared" si="22"/>
         <v>1.059877328118713</v>
       </c>
       <c r="F64" s="4">
-        <f t="shared" si="27"/>
+        <f t="shared" si="23"/>
         <v>0.25255602242018482</v>
       </c>
     </row>
@@ -4947,19 +4931,19 @@
         <v>310</v>
       </c>
       <c r="C65" s="4">
-        <f>RADIANS(B65)</f>
+        <f t="shared" si="20"/>
         <v>5.4105206811824216</v>
       </c>
       <c r="D65" s="4">
-        <f>4*PI()*(SIN(C65/4))^2</f>
+        <f t="shared" si="21"/>
         <v>11.977685078470712</v>
       </c>
       <c r="E65" s="4">
-        <f>4*PI()/D65</f>
+        <f t="shared" si="22"/>
         <v>1.0491485234443669</v>
       </c>
       <c r="F65" s="4">
-        <f>10*LOG10(E65)</f>
+        <f t="shared" si="23"/>
         <v>0.20836973747806109</v>
       </c>
     </row>
@@ -4968,19 +4952,19 @@
         <v>315</v>
       </c>
       <c r="C66" s="4">
-        <f t="shared" ref="C66:C69" si="28">RADIANS(B66)</f>
+        <f t="shared" si="20"/>
         <v>5.497787143782138</v>
       </c>
       <c r="D66" s="4">
-        <f t="shared" ref="D66:D69" si="29">4*PI()*(SIN(C66/4))^2</f>
+        <f t="shared" si="21"/>
         <v>12.088091611458449</v>
       </c>
       <c r="E66" s="4">
-        <f t="shared" ref="E66:E69" si="30">4*PI()/D66</f>
+        <f t="shared" si="22"/>
         <v>1.0395661298965799</v>
       </c>
       <c r="F66" s="4">
-        <f t="shared" ref="F66:F69" si="31">10*LOG10(E66)</f>
+        <f t="shared" si="23"/>
         <v>0.1685212131123649</v>
       </c>
     </row>
@@ -4989,19 +4973,19 @@
         <v>320</v>
       </c>
       <c r="C67" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>5.5850536063818543</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>12.187448175366683</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1.0310912041257636</v>
       </c>
       <c r="F67" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0.13297082060129067</v>
       </c>
     </row>
@@ -5010,19 +4994,19 @@
         <v>325</v>
       </c>
       <c r="C68" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>5.6723200689815707</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>12.275565639328962</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1.023689741358925</v>
       </c>
       <c r="F68" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>0.10168351139143308</v>
       </c>
     </row>
@@ -5031,19 +5015,19 @@
         <v>330</v>
       </c>
       <c r="C69" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="20"/>
         <v>5.7595865315812871</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="21"/>
         <v>12.352276266744362</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" si="30"/>
+        <f t="shared" si="22"/>
         <v>1.0173323801209992</v>
       </c>
       <c r="F69" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="23"/>
         <v>7.4628676414398715E-2</v>
       </c>
     </row>
@@ -5052,19 +5036,19 @@
         <v>335</v>
       </c>
       <c r="C70" s="4">
-        <f>RADIANS(B70)</f>
+        <f t="shared" si="20"/>
         <v>5.8468529941810043</v>
       </c>
       <c r="D70" s="4">
-        <f>4*PI()*(SIN(C70/4))^2</f>
+        <f t="shared" si="21"/>
         <v>12.417434034573649</v>
       </c>
       <c r="E70" s="4">
-        <f>4*PI()/D70</f>
+        <f t="shared" si="22"/>
         <v>1.0119941510758859</v>
       </c>
       <c r="F70" s="4">
-        <f>10*LOG10(E70)</f>
+        <f t="shared" si="23"/>
         <v>5.1780024614795472E-2</v>
       </c>
     </row>
@@ -5073,19 +5057,19 @@
         <v>340</v>
       </c>
       <c r="C71" s="4">
-        <f t="shared" ref="C71:C74" si="32">RADIANS(B71)</f>
+        <f t="shared" si="20"/>
         <v>5.9341194567807207</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" ref="D71:D74" si="33">4*PI()*(SIN(C71/4))^2</f>
+        <f t="shared" si="21"/>
         <v>12.470914911302435</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" ref="E71:E74" si="34">4*PI()/D71</f>
+        <f t="shared" si="22"/>
         <v>1.0076542662455523</v>
       </c>
       <c r="F71" s="4">
-        <f t="shared" ref="F71:F74" si="35">10*LOG10(E71)</f>
+        <f t="shared" si="23"/>
         <v>3.3115479650018827E-2</v>
       </c>
     </row>
@@ -5094,19 +5078,19 @@
         <v>345</v>
       </c>
       <c r="C72" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>6.0213859193804371</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>12.512617093042213</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>1.0042959455178126</v>
       </c>
       <c r="F72" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="23"/>
         <v>1.8617093889341088E-2</v>
       </c>
     </row>
@@ -5115,19 +5099,19 @@
         <v>350</v>
       </c>
       <c r="C73" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>6.1086523819801535</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>12.542461197319847</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>1.0019062779356602</v>
       </c>
       <c r="F73" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="23"/>
         <v>8.2709789942018632E-3</v>
       </c>
     </row>
@@ -5136,19 +5120,19 @@
         <v>355</v>
       </c>
       <c r="C74" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="20"/>
         <v>6.1959188445798699</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" si="33"/>
+        <f t="shared" si="21"/>
         <v>12.560390414186612</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="22"/>
         <v>1.0004761157874364</v>
       </c>
       <c r="F74" s="4">
-        <f t="shared" si="35"/>
+        <f t="shared" si="23"/>
         <v>2.0672525055716335E-3</v>
       </c>
     </row>
@@ -5157,19 +5141,19 @@
         <v>360</v>
       </c>
       <c r="C75" s="4">
-        <f>RADIANS(B75)</f>
+        <f t="shared" si="20"/>
         <v>6.2831853071795862</v>
       </c>
       <c r="D75" s="4">
-        <f>4*PI()*(SIN(C75/4))^2</f>
+        <f t="shared" si="21"/>
         <v>12.566370614359172</v>
       </c>
       <c r="E75" s="4">
-        <f>4*PI()/D75</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="F75" s="4">
-        <f>10*LOG10(E75)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -5187,8 +5171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1288A94A-B1B5-47EA-ADD0-F5EE63EFD73A}">
   <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5205,16 +5189,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="F2" s="26" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="F2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -5265,7 +5249,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="6">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -5285,7 +5269,7 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>0.55000000000000004</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -5295,12 +5279,12 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="16">
         <f>C6*(PI()*C5/C4)^2</f>
-        <v>1250676.2697060439</v>
+        <v>1425686.7268406667</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -5311,10 +5295,10 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="25"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="8">
         <f>10*LOG10(C7)</f>
-        <v>60.971449096336855</v>
+        <v>61.540241063355467</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -5327,17 +5311,17 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="22">
         <f>RADIANS(C10)</f>
-        <v>2.5452718258250641E-3</v>
+        <v>2.4899398296114759E-3</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G9" s="9">
@@ -5346,15 +5330,15 @@
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="33">
+      <c r="B10" s="26"/>
+      <c r="C10" s="23">
         <f>70*C4/C5</f>
-        <v>0.14583333333333334</v>
+        <v>0.14266304347826089</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="27"/>
       <c r="G10" s="8">
         <f>G9+10*LOG10(G8)</f>
         <v>9.354677708639116</v>
@@ -5364,7 +5348,7 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G11" s="7">
@@ -5376,7 +5360,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F12" s="24"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="8">
         <f>16.6/SQRT(G5^2*G6/G4^3)</f>
         <v>44.817727098593473</v>
@@ -5386,16 +5370,16 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="F15" s="26" t="s">
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="F15" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -5430,7 +5414,7 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="27" t="s">
         <v>14</v>
       </c>
       <c r="G17">
@@ -5451,7 +5435,7 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="27"/>
       <c r="G18">
         <f>G17*1000</f>
         <v>35.714285714285715</v>
@@ -5472,7 +5456,7 @@
         <v>43</v>
       </c>
       <c r="G19" s="6">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
@@ -5487,14 +5471,14 @@
       </c>
       <c r="G20" s="15">
         <f>G19*G18</f>
-        <v>428.57142857142856</v>
+        <v>642.85714285714289</v>
       </c>
       <c r="H20" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="9">
@@ -5509,7 +5493,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="25"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="8">
         <f>C21+10*LOG10(C20)</f>
         <v>13.750855243552563</v>
@@ -5529,7 +5513,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="26" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="7">
@@ -5544,11 +5528,11 @@
       </c>
       <c r="G23" s="15">
         <f>G19*G21</f>
-        <v>144</v>
+        <v>216</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="24"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="8">
         <f>72*C17/C18</f>
         <v>24.545454545454543</v>
@@ -5561,7 +5545,7 @@
       </c>
       <c r="G24" s="15">
         <f>(G19*G17)*(G21*G17)</f>
-        <v>0.18367346938775508</v>
+        <v>0.27551020408163263</v>
       </c>
       <c r="H24" t="s">
         <v>42</v>
@@ -5576,41 +5560,41 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F26" s="25" t="s">
+      <c r="F26" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="9">
         <f>10*LOG10(G24/G17^2)+8</f>
-        <v>29.583624920952499</v>
+        <v>31.344537511509309</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F27" s="25"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="8">
         <f>G26+10*LOG10(G25)</f>
-        <v>27.365137424788934</v>
+        <v>29.126050015345744</v>
       </c>
       <c r="H27" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="26" t="s">
         <v>18</v>
       </c>
       <c r="G28" s="7">
         <f>RADIANS(G29)</f>
-        <v>4.4879895051282759E-2</v>
+        <v>3.7399912542735642E-2</v>
       </c>
       <c r="H28" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F29" s="24"/>
+      <c r="F29" s="26"/>
       <c r="G29" s="8">
         <f>72*AVERAGE(G20,G22)/1000/G19</f>
-        <v>2.5714285714285712</v>
+        <v>2.1428571428571432</v>
       </c>
       <c r="H29" t="s">
         <v>19</v>
@@ -5637,11 +5621,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E6C831-1FA5-4060-BDC0-7C643AE7CDA9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A38F01C-158B-44EA-A1C7-409EF8005D29}">
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5658,34 +5654,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="20">
+        <v>10</v>
+      </c>
+      <c r="D3" s="20">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="17" t="s">
         <v>50</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="20"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="21">
-        <v>10</v>
-      </c>
-      <c r="D3" s="21">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="C4" s="3">
         <v>25</v>
@@ -5694,74 +5690,74 @@
         <v>100</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="27">
+      <c r="B5" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="30">
         <v>4</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="28">
+      <c r="B6" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="31">
         <f>C3*C4*C5+D3*D4*C5</f>
         <v>2200</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="17" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="28">
+      <c r="C7" s="31">
         <v>290</v>
       </c>
-      <c r="D7" s="28"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="27">
+      <c r="B8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="30">
         <v>2</v>
       </c>
-      <c r="D8" s="27"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="28">
+      <c r="B9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="31">
         <f>C8*C7*C5</f>
         <v>2320</v>
       </c>
-      <c r="D9" s="28"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
-        <v>59</v>
+      <c r="B10" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="C10" s="29">
         <f>1000*(C9/C8)/86400</f>
@@ -5769,7 +5765,7 @@
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -5794,12 +5790,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968CC12D-5775-4072-95A1-117E97439760}">
   <dimension ref="D7:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5809,10 +5805,10 @@
   <sheetData>
     <row r="7" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="4:5" x14ac:dyDescent="0.3">
@@ -5852,453 +5848,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB426678-5217-48AE-97D3-67BA84EBE3E9}">
-  <dimension ref="D1:H21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="7" width="10.109375" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D1" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="30"/>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16">
-        <f>RADIANS(D3)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="16">
-        <f>(COS(E3))^2.4</f>
-        <v>1</v>
-      </c>
-      <c r="G3" s="16">
-        <f>10*LOG10(F3)</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f>G3+27.6</f>
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="4" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="16">
-        <f t="shared" ref="E4:E21" si="0">RADIANS(D4)</f>
-        <v>8.7266462599716474E-2</v>
-      </c>
-      <c r="F4" s="16">
-        <f t="shared" ref="F4:F21" si="1">(COS(E4))^2.4</f>
-        <v>0.99089159001227745</v>
-      </c>
-      <c r="G4" s="16">
-        <f t="shared" ref="G4:G21" si="2">10*LOG10(F4)</f>
-        <v>-3.9738575580022466E-2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H21" si="3">G4+27.6</f>
-        <v>27.560261424419981</v>
-      </c>
-    </row>
-    <row r="5" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5" s="16">
-        <f t="shared" si="0"/>
-        <v>0.17453292519943295</v>
-      </c>
-      <c r="F5" s="16">
-        <f t="shared" si="1"/>
-        <v>0.9639255713279079</v>
-      </c>
-      <c r="G5" s="16">
-        <f t="shared" si="2"/>
-        <v>-0.15956498472154823</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>27.440435015278453</v>
-      </c>
-    </row>
-    <row r="6" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6" s="16">
-        <f t="shared" si="0"/>
-        <v>0.26179938779914941</v>
-      </c>
-      <c r="F6" s="16">
-        <f t="shared" si="1"/>
-        <v>0.92016363830382608</v>
-      </c>
-      <c r="G6" s="16">
-        <f t="shared" si="2"/>
-        <v>-0.36134932553523591</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>27.238650674464765</v>
-      </c>
-    </row>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7" s="16">
-        <f t="shared" si="0"/>
-        <v>0.3490658503988659</v>
-      </c>
-      <c r="F7" s="16">
-        <f t="shared" si="1"/>
-        <v>0.86132283158103773</v>
-      </c>
-      <c r="G7" s="16">
-        <f t="shared" si="2"/>
-        <v>-0.64834040536952431</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>26.951659594630478</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D8">
-        <v>25</v>
-      </c>
-      <c r="E8" s="16">
-        <f t="shared" si="0"/>
-        <v>0.43633231299858238</v>
-      </c>
-      <c r="F8" s="16">
-        <f t="shared" si="1"/>
-        <v>0.78969921729881387</v>
-      </c>
-      <c r="G8" s="16">
-        <f t="shared" si="2"/>
-        <v>-1.0253829243264361</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>26.574617075673565</v>
-      </c>
-    </row>
-    <row r="9" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D9">
-        <v>30</v>
-      </c>
-      <c r="E9" s="16">
-        <f t="shared" si="0"/>
-        <v>0.52359877559829882</v>
-      </c>
-      <c r="F9" s="16">
-        <f t="shared" si="1"/>
-        <v>0.70806563347117668</v>
-      </c>
-      <c r="G9" s="16">
-        <f t="shared" si="2"/>
-        <v>-1.4992648392995984</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>26.100735160700403</v>
-      </c>
-    </row>
-    <row r="10" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D10">
-        <v>35</v>
-      </c>
-      <c r="E10" s="16">
-        <f t="shared" si="0"/>
-        <v>0.6108652381980153</v>
-      </c>
-      <c r="F10" s="16">
-        <f t="shared" si="1"/>
-        <v>0.61954783919152689</v>
-      </c>
-      <c r="G10" s="16">
-        <f t="shared" si="2"/>
-        <v>-2.0792515338034097</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>25.520748466196594</v>
-      </c>
-    </row>
-    <row r="11" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D11">
-        <v>40</v>
-      </c>
-      <c r="E11" s="16">
-        <f t="shared" si="0"/>
-        <v>0.69813170079773179</v>
-      </c>
-      <c r="F11" s="16">
-        <f t="shared" si="1"/>
-        <v>0.52748427798232222</v>
-      </c>
-      <c r="G11" s="16">
-        <f t="shared" si="2"/>
-        <v>-2.777904802715534</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
-        <v>24.822095197284469</v>
-      </c>
-    </row>
-    <row r="12" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D12">
-        <v>45</v>
-      </c>
-      <c r="E12" s="16">
-        <f t="shared" si="0"/>
-        <v>0.78539816339744828</v>
-      </c>
-      <c r="F12" s="16">
-        <f t="shared" si="1"/>
-        <v>0.43527528164806217</v>
-      </c>
-      <c r="G12" s="16">
-        <f t="shared" si="2"/>
-        <v>-3.6123599479677733</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
-        <v>23.987640052032226</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D13">
-        <v>50</v>
-      </c>
-      <c r="E13" s="16">
-        <f t="shared" si="0"/>
-        <v>0.87266462599716477</v>
-      </c>
-      <c r="F13" s="16">
-        <f t="shared" si="1"/>
-        <v>0.34622784467939988</v>
-      </c>
-      <c r="G13" s="16">
-        <f t="shared" si="2"/>
-        <v>-4.6063800779415613</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
-        <v>22.993619922058439</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D14">
-        <v>55</v>
-      </c>
-      <c r="E14" s="16">
-        <f t="shared" si="0"/>
-        <v>0.95993108859688125</v>
-      </c>
-      <c r="F14" s="16">
-        <f t="shared" si="1"/>
-        <v>0.26340203337740886</v>
-      </c>
-      <c r="G14" s="16">
-        <f t="shared" si="2"/>
-        <v>-5.7938087675016616</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="3"/>
-        <v>21.806191232498339</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D15">
-        <v>60</v>
-      </c>
-      <c r="E15" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0471975511965976</v>
-      </c>
-      <c r="F15" s="16">
-        <f t="shared" si="1"/>
-        <v>0.18946457081379989</v>
-      </c>
-      <c r="G15" s="16">
-        <f t="shared" si="2"/>
-        <v>-7.2247198959355465</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="3"/>
-        <v>20.375280104064455</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D16">
-        <v>65</v>
-      </c>
-      <c r="E16" s="16">
-        <f t="shared" si="0"/>
-        <v>1.1344640137963142</v>
-      </c>
-      <c r="F16" s="16">
-        <f t="shared" si="1"/>
-        <v>0.12655398428884554</v>
-      </c>
-      <c r="G16" s="16">
-        <f t="shared" si="2"/>
-        <v>-8.9772417743246482</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="3"/>
-        <v>18.622758225675355</v>
-      </c>
-    </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D17">
-        <v>70</v>
-      </c>
-      <c r="E17" s="16">
-        <f t="shared" si="0"/>
-        <v>1.2217304763960306</v>
-      </c>
-      <c r="F17" s="16">
-        <f t="shared" si="1"/>
-        <v>7.61594928066152E-2</v>
-      </c>
-      <c r="G17" s="16">
-        <f t="shared" si="2"/>
-        <v>-11.182759568507583</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="3"/>
-        <v>16.417240431492417</v>
-      </c>
-    </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D18">
-        <v>75</v>
-      </c>
-      <c r="E18" s="16">
-        <f t="shared" si="0"/>
-        <v>1.3089969389957472</v>
-      </c>
-      <c r="F18" s="16">
-        <f t="shared" si="1"/>
-        <v>3.9011347655322895E-2</v>
-      </c>
-      <c r="G18" s="16">
-        <f t="shared" si="2"/>
-        <v>-14.08809046633586</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="3"/>
-        <v>13.511909533664141</v>
-      </c>
-    </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D19">
-        <v>80</v>
-      </c>
-      <c r="E19" s="16">
-        <f t="shared" si="0"/>
-        <v>1.3962634015954636</v>
-      </c>
-      <c r="F19" s="16">
-        <f t="shared" si="1"/>
-        <v>1.4969543341529834E-2</v>
-      </c>
-      <c r="G19" s="16">
-        <f t="shared" si="2"/>
-        <v>-18.24791447972158</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="3"/>
-        <v>9.3520855202784219</v>
-      </c>
-    </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D20">
-        <v>85</v>
-      </c>
-      <c r="E20" s="16">
-        <f t="shared" si="0"/>
-        <v>1.4835298641951802</v>
-      </c>
-      <c r="F20" s="16">
-        <f t="shared" si="1"/>
-        <v>2.862268822411113E-3</v>
-      </c>
-      <c r="G20" s="16">
-        <f t="shared" si="2"/>
-        <v>-25.432895800077119</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="3"/>
-        <v>2.1671041999228819</v>
-      </c>
-    </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="D21">
-        <v>90</v>
-      </c>
-      <c r="E21" s="16">
-        <f t="shared" si="0"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="F21" s="16">
-        <f t="shared" si="1"/>
-        <v>1.227950698178047E-39</v>
-      </c>
-      <c r="G21" s="16">
-        <f t="shared" si="2"/>
-        <v>-389.10819069627303</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="3"/>
-        <v>-361.508190696273</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Orb_Alt_Study/Antenna_Coverage_and_Gains.xlsx
+++ b/Orb_Alt_Study/Antenna_Coverage_and_Gains.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lyle\Documents\GitHub\Telecomm\Orb_Alt_Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC6C4B7-63FC-4881-89E3-824ED109C5E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26585485-3A6C-4C1D-98E5-52D3BB3B9039}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="787" activeTab="2" xr2:uid="{08F54D12-A179-41B6-9AE0-F91540243AA2}"/>
+    <workbookView xWindow="5760" yWindow="1296" windowWidth="17280" windowHeight="8964" tabRatio="787" activeTab="3" xr2:uid="{08F54D12-A179-41B6-9AE0-F91540243AA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Coverage vs Angle" sheetId="3" r:id="rId1"/>
     <sheet name="Directivity" sheetId="1" r:id="rId2"/>
     <sheet name="Antennas" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
-    <sheet name="Waterfall" sheetId="5" r:id="rId5"/>
-    <sheet name="Pointing Accuracy" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId5"/>
+    <sheet name="Waterfall" sheetId="5" r:id="rId6"/>
+    <sheet name="Pointing Accuracy" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5171,8 +5172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1288A94A-B1B5-47EA-ADD0-F5EE63EFD73A}">
   <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5249,7 +5250,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="6">
-        <v>4.5999999999999996</v>
+        <v>3.5</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -5284,7 +5285,7 @@
       </c>
       <c r="C7" s="16">
         <f>C6*(PI()*C5/C4)^2</f>
-        <v>1425686.7268406667</v>
+        <v>825362.11738176609</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
@@ -5298,7 +5299,7 @@
       <c r="B8" s="27"/>
       <c r="C8" s="8">
         <f>10*LOG10(C7)</f>
-        <v>61.540241063355467</v>
+        <v>59.166445316729501</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="C9" s="22">
         <f>RADIANS(C10)</f>
-        <v>2.4899398296114759E-3</v>
+        <v>3.2724923474893681E-3</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
@@ -5333,7 +5334,7 @@
       <c r="B10" s="26"/>
       <c r="C10" s="23">
         <f>70*C4/C5</f>
-        <v>0.14266304347826089</v>
+        <v>0.1875</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -5621,6 +5622,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC5C1560-DA2E-4206-BF7F-4253DD055C1A}">
+  <dimension ref="C2:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>4.5</v>
+      </c>
+      <c r="D2">
+        <v>3.56</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>4.25</v>
+      </c>
+      <c r="D3">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3.11</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>3.75</v>
+      </c>
+      <c r="D5">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>3.5</v>
+      </c>
+      <c r="D6">
+        <v>2.85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E6C831-1FA5-4060-BDC0-7C643AE7CDA9}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5632,7 +5688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A38F01C-158B-44EA-A1C7-409EF8005D29}">
   <dimension ref="B2:E10"/>
   <sheetViews>
@@ -5790,7 +5846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968CC12D-5775-4072-95A1-117E97439760}">
   <dimension ref="D7:E18"/>
   <sheetViews>
